--- a/swe-iot/docs/it004/SprintPlan.xlsx
+++ b/swe-iot/docs/it004/SprintPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Wer?</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>Sprint 4 behandelt E2S3, E3S1 und E3S2</t>
   </si>
   <si>
     <t xml:space="preserve">E2S3 Es soll ein neues Verhalten implementiert werden, dass bei allen 10 Klicks eine Melodie abspielt. </t>
@@ -93,6 +90,39 @@
   </si>
   <si>
     <t>Stefan, Philipp</t>
+  </si>
+  <si>
+    <t>4.Aufgabe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E3S3 Erstellen die ein Verhalten ähnlich dem in der Klasse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="CourierNewPSMT"/>
+      </rPr>
+      <t xml:space="preserve">CountAndShowLed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve">nur, das der x-Wert den rot-Wert, der y-Wert den grün-Wert und der z-Wert den blau-Wert definiert. Auch hier wieder Testfall und ein kleines Demo. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">x-Wert den rot-Wert, der y-Wert den grün-Wert und der z-Wert den blau-Wert </t>
+  </si>
+  <si>
+    <t>Georg,Michael</t>
+  </si>
+  <si>
+    <t>Sprint 4 behandelt E2S3, E3S1, E3S2 und E3S3</t>
   </si>
 </sst>
 </file>
@@ -566,29 +596,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="64.150000000000006" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="69" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -599,7 +629,7 @@
     </row>
     <row r="4" spans="1:12" ht="69" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -608,60 +638,57 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:12" ht="69" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="47.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
@@ -670,87 +697,128 @@
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="63">
+    <row r="8" spans="1:12" ht="47.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:12" ht="63">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="126">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9">
+        <v>19</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="I12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
+    <row r="13" spans="1:12">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/swe-iot/docs/it004/SprintPlan.xlsx
+++ b/swe-iot/docs/it004/SprintPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Wer?</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Sprint 4 behandelt E2S3, E3S1, E3S2 und E3S3</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -794,7 +797,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
